--- a/biology/Biochimie/Dihydrobioptérine/Dihydrobioptérine.xlsx
+++ b/biology/Biochimie/Dihydrobioptérine/Dihydrobioptérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dihydrobiopt%C3%A9rine</t>
+          <t>Dihydrobioptérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La dihydrobioptérine (BH2) est une ptérine produite lors de la synthèse de la DOPA, de la dopamine, de la sérotonine, de la noradrénaline, de l'adrénaline et de la guanosine dans le foie et dans le rein[2].
+La dihydrobioptérine (BH2) est une ptérine produite lors de la synthèse de la DOPA, de la dopamine, de la sérotonine, de la noradrénaline, de l'adrénaline et de la guanosine dans le foie et dans le rein.
 </t>
         </is>
       </c>
